--- a/assets/BOs/Nuwa.xlsx
+++ b/assets/BOs/Nuwa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F0AC83-2649-4C0D-8B36-82641A4098F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78B195F-3EBF-46B3-9771-2B4276197DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
-    <t>Nu wa fast 2 TC</t>
-  </si>
-  <si>
     <t>Archaic</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>2 / 1 KuaFu + 6 / 1 Hero_KuaFu + 2</t>
+  </si>
+  <si>
+    <t>Fast 2 TC By Looki</t>
   </si>
 </sst>
 </file>
@@ -392,9 +392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -405,69 +403,69 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/assets/BOs/Nuwa.xlsx
+++ b/assets/BOs/Nuwa.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E6FC7A-02BF-4BB8-9965-2C7767387063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33040DB1-017A-4B39-9A95-519AD5F5591E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="3" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="4" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="5" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="3" r:id="rId2"/>
+    <sheet name="Feuil2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
   <si>
     <t>Archaic</t>
   </si>
@@ -572,13 +573,107 @@
   </si>
   <si>
     <t>Chieftain makes temple once you have 150 Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2/1/0/0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+All villagers to food</t>
+  </si>
+  <si>
+    <t>Initial 2 vills build Silo in middle of hunt clump and gather food. 
+Kuafu builds Silo between Gold and Wood and gathers Gold. 
+(If there are no trees next to Gold then just build a silo at Gold).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select a worker and use shift click to queue build a house with foundation circle atleast 50% in favored land.
+The house will begin building itself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At 150 gold Kuafu switches and builds silo at wood (or just moves to; if silo was between both) and gathers wood.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At 150 wood/150 gold villager builds a temple. Place with atleast
+50% of the building on favored land to grant faster build time.
+Builder returns to food once temple is complete. </t>
+  </si>
+  <si>
+    <t>10/1/0/0</t>
+  </si>
+  <si>
+    <t>At 20 favor build hero Kuafu. Try to time this as fast as possible.
+If you are close to 20 favor and the next villager will start then cancel the villager, build the hero Kuafu and turn auto build villagers back on after. 
+(it's important to turn on auto villager after and not forget; i have done this many times)</t>
+  </si>
+  <si>
+    <t>Advance - Houtu (2.55)</t>
+  </si>
+  <si>
+    <t>2/5/5/0</t>
+  </si>
+  <si>
+    <t>4 villagers and 1 kuafu go wood
+4 villagers 1 kuafu go gold
+2 stay on food
+At 300 wood 300 gold, start sending 2 kuafus to 2nd TC</t>
+  </si>
+  <si>
+    <t>Don't turn on auto build Kuafu's yet. Rally the first TCs villagers to the remaining
+food hunt source.</t>
+  </si>
+  <si>
+    <t>Classical (3.55)</t>
+  </si>
+  <si>
+    <t>2/4/4/0</t>
+  </si>
+  <si>
+    <t>2 Kuafu and GP (Clay Peasants) build 2nd TC</t>
+  </si>
+  <si>
+    <t>If you think the opponent is going to rush your 2nd TC build a house near the 
+2nd TC and use Earth Wall on it to protect you while you build. 
+Otherwise use Earth Wall to block off areas or protect 2nd gold later on.</t>
+  </si>
+  <si>
+    <t>Once TC is finished. Clay Peasants go to a safe nearby hunt (if available),
+ build silo and gather food</t>
+  </si>
+  <si>
+    <t>9/5/5/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Once the 2nd TC is built return the Kuafus to wood and gold. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research Abundance from Silo  
+(Houtu tech, 50 food, 50 wood, 50 gold, 20 favor) 
+and then turn on auto build Kuafu at TCs.
+</t>
+  </si>
+  <si>
+    <t>Start transfering some villagers to food with the priority of safe hunt spot 
+then berries and chickens then lastly farms if you don't have any other 
+sources remaining. The distribution will depend on what military units
+you wish to build. More wood and gold for a ranged heavy army (fighting
+infantry units) or more food for melee army (generally for fighting calvary units)</t>
+  </si>
+  <si>
+    <t>Standard Build Order - By BqvH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -619,8 +714,47 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -637,6 +771,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -701,10 +853,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -736,9 +889,26 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{70FD8B8B-75C3-477A-9B79-F25351F61E93}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1074,16 +1244,177 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C11CC5-D1D1-4007-B2F9-7DD23D073ABF}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+    </row>
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+    </row>
+    <row r="3" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A9" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A11" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A11:D11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A134E6A9-645D-47EA-9AC6-7BF90D1A3CB1}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>41</v>
       </c>
@@ -1091,7 +1422,7 @@
       <c r="C1" s="6"/>
       <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1099,7 +1430,7 @@
       <c r="C2" s="9"/>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1107,7 +1438,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="158.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="139.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1119,7 +1450,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="70.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
@@ -1133,7 +1464,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1143,7 +1474,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1151,7 +1482,7 @@
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -1159,7 +1490,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="111.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
@@ -1169,7 +1500,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
@@ -1177,7 +1508,7 @@
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -1185,7 +1516,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="56.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -1197,7 +1528,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="56.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
@@ -1220,17 +1551,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A1AAA0-9F3F-488F-B5A6-6B93208C627A}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>40</v>
       </c>
@@ -1238,7 +1569,7 @@
       <c r="C1" s="6"/>
       <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1246,7 +1577,7 @@
       <c r="C2" s="9"/>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1254,7 +1585,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="101.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="84" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
@@ -1268,7 +1599,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="56.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -1280,7 +1611,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
@@ -1290,7 +1621,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="70.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1302,7 +1633,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="70.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -1316,7 +1647,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="70.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
@@ -1328,7 +1659,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
@@ -1336,7 +1667,7 @@
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -1344,7 +1675,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="56.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
@@ -1356,7 +1687,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>20</v>
       </c>
@@ -1364,7 +1695,7 @@
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -1372,7 +1703,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="56.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
